--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H2">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I2">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J2">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N2">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O2">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P2">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q2">
-        <v>4.398830457505948</v>
+        <v>5.024536779943999</v>
       </c>
       <c r="R2">
-        <v>4.398830457505948</v>
+        <v>20.098147119776</v>
       </c>
       <c r="S2">
-        <v>0.003069255817485515</v>
+        <v>0.00302340541066444</v>
       </c>
       <c r="T2">
-        <v>0.003069255817485515</v>
+        <v>0.001631493382596536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H3">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I3">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J3">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N3">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O3">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P3">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q3">
-        <v>72.26876987195907</v>
+        <v>76.69205390493167</v>
       </c>
       <c r="R3">
-        <v>72.26876987195907</v>
+        <v>460.15232342959</v>
       </c>
       <c r="S3">
-        <v>0.05042507195828481</v>
+        <v>0.04614777060776606</v>
       </c>
       <c r="T3">
-        <v>0.05042507195828481</v>
+        <v>0.03735346677421297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H4">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I4">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J4">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N4">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P4">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q4">
-        <v>3.733447870335401</v>
+        <v>0.5610527202536666</v>
       </c>
       <c r="R4">
-        <v>3.733447870335401</v>
+        <v>3.366316321522</v>
       </c>
       <c r="S4">
-        <v>0.002604989372971382</v>
+        <v>0.0003376012365664967</v>
       </c>
       <c r="T4">
-        <v>0.002604989372971382</v>
+        <v>0.0002732651308381439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.3297174289005</v>
+        <v>24.863113</v>
       </c>
       <c r="H5">
-        <v>24.3297174289005</v>
+        <v>49.726226</v>
       </c>
       <c r="I5">
-        <v>0.09220519717278919</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J5">
-        <v>0.09220519717278919</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N5">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O5">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P5">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q5">
-        <v>51.74662986383185</v>
+        <v>0.1697073216336666</v>
       </c>
       <c r="R5">
-        <v>51.74662986383185</v>
+        <v>1.018243929802</v>
       </c>
       <c r="S5">
-        <v>0.03610588002404747</v>
+        <v>0.0001021176790872883</v>
       </c>
       <c r="T5">
-        <v>0.03610588002404747</v>
+        <v>8.265728295452788E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8320663585872</v>
+        <v>24.863113</v>
       </c>
       <c r="H6">
-        <v>29.8320663585872</v>
+        <v>49.726226</v>
       </c>
       <c r="I6">
-        <v>0.1130580973126235</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J6">
-        <v>0.1130580973126235</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N6">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O6">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P6">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q6">
-        <v>5.393659112235001</v>
+        <v>3.887264840506666</v>
       </c>
       <c r="R6">
-        <v>5.393659112235001</v>
+        <v>23.32358904304</v>
       </c>
       <c r="S6">
-        <v>0.003763391148552502</v>
+        <v>0.002339076827616432</v>
       </c>
       <c r="T6">
-        <v>0.003763391148552502</v>
+        <v>0.001893322849879952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8320663585872</v>
+        <v>24.863113</v>
       </c>
       <c r="H7">
-        <v>29.8320663585872</v>
+        <v>49.726226</v>
       </c>
       <c r="I7">
-        <v>0.1130580973126235</v>
+        <v>0.0840270138440103</v>
       </c>
       <c r="J7">
-        <v>0.1130580973126235</v>
+        <v>0.05854365446293047</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N7">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O7">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P7">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q7">
-        <v>88.61289674958546</v>
+        <v>53.3081925321275</v>
       </c>
       <c r="R7">
-        <v>88.61289674958546</v>
+        <v>213.23277012851</v>
       </c>
       <c r="S7">
-        <v>0.06182908195264099</v>
+        <v>0.03207704208230958</v>
       </c>
       <c r="T7">
-        <v>0.06182908195264099</v>
+        <v>0.01730944904244833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H8">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I8">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J8">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N8">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O8">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P8">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q8">
-        <v>4.577795239079561</v>
+        <v>6.455848616877333</v>
       </c>
       <c r="R8">
-        <v>4.577795239079561</v>
+        <v>38.735091701264</v>
       </c>
       <c r="S8">
-        <v>0.003194127349197441</v>
+        <v>0.003884666088346359</v>
       </c>
       <c r="T8">
-        <v>0.003194127349197441</v>
+        <v>0.003144371737765772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.8320663585872</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H9">
-        <v>29.8320663585872</v>
+        <v>95.837189</v>
       </c>
       <c r="I9">
-        <v>0.1130580973126235</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J9">
-        <v>0.1130580973126235</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N9">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O9">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P9">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q9">
-        <v>63.44952013693997</v>
+        <v>98.53889260079278</v>
       </c>
       <c r="R9">
-        <v>63.44952013693997</v>
+        <v>886.8500334071349</v>
       </c>
       <c r="S9">
-        <v>0.04427149686223251</v>
+        <v>0.05929362926336056</v>
       </c>
       <c r="T9">
-        <v>0.04427149686223251</v>
+        <v>0.07199121153987173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.4078621360738</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H10">
-        <v>76.4078621360738</v>
+        <v>95.837189</v>
       </c>
       <c r="I10">
-        <v>0.2895718790979137</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J10">
-        <v>0.2895718790979137</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N10">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O10">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P10">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q10">
-        <v>13.81459657882537</v>
+        <v>0.7208766870814444</v>
       </c>
       <c r="R10">
-        <v>13.81459657882537</v>
+        <v>6.487890183732999</v>
       </c>
       <c r="S10">
-        <v>0.009639046406852326</v>
+        <v>0.000433771822477969</v>
       </c>
       <c r="T10">
-        <v>0.009639046406852326</v>
+        <v>0.000526662972396999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.4078621360738</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H11">
-        <v>76.4078621360738</v>
+        <v>95.837189</v>
       </c>
       <c r="I11">
-        <v>0.2895718790979137</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J11">
-        <v>0.2895718790979137</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N11">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O11">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P11">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q11">
-        <v>226.9612140485035</v>
+        <v>0.2180509021281111</v>
       </c>
       <c r="R11">
-        <v>226.9612140485035</v>
+        <v>1.962458119153</v>
       </c>
       <c r="S11">
-        <v>0.1583607354935213</v>
+        <v>0.0001312073741654929</v>
       </c>
       <c r="T11">
-        <v>0.1583607354935213</v>
+        <v>0.0001593051048905173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.4078621360738</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H12">
-        <v>76.4078621360738</v>
+        <v>95.837189</v>
       </c>
       <c r="I12">
-        <v>0.2895718790979137</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J12">
-        <v>0.2895718790979137</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N12">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O12">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P12">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q12">
-        <v>11.72495204691316</v>
+        <v>4.994608347617778</v>
       </c>
       <c r="R12">
-        <v>11.72495204691316</v>
+        <v>44.95147512856</v>
       </c>
       <c r="S12">
-        <v>0.008181010299753808</v>
+        <v>0.003005396629319861</v>
       </c>
       <c r="T12">
-        <v>0.008181010299753808</v>
+        <v>0.003648994794054219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.4078621360738</v>
+        <v>31.94572966666667</v>
       </c>
       <c r="H13">
-        <v>76.4078621360738</v>
+        <v>95.837189</v>
       </c>
       <c r="I13">
-        <v>0.2895718790979137</v>
+        <v>0.1079633217673913</v>
       </c>
       <c r="J13">
-        <v>0.2895718790979137</v>
+        <v>0.1128309893759997</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N13">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O13">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P13">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q13">
-        <v>162.5111089841697</v>
+        <v>68.49380074208584</v>
       </c>
       <c r="R13">
-        <v>162.5111089841697</v>
+        <v>410.962804452515</v>
       </c>
       <c r="S13">
-        <v>0.1133910868977862</v>
+        <v>0.0412146505897211</v>
       </c>
       <c r="T13">
-        <v>0.1133910868977862</v>
+        <v>0.03336044322702049</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H14">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I14">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J14">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N14">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O14">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P14">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q14">
-        <v>14.34375333850133</v>
+        <v>19.362474048096</v>
       </c>
       <c r="R14">
-        <v>14.34375333850133</v>
+        <v>116.174844288576</v>
       </c>
       <c r="S14">
-        <v>0.01000826215151143</v>
+        <v>0.01165094641849068</v>
       </c>
       <c r="T14">
-        <v>0.01000826215151143</v>
+        <v>0.009430644952065968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H15">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I15">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J15">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N15">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O15">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P15">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q15">
-        <v>235.6547766808073</v>
+        <v>295.53926430726</v>
       </c>
       <c r="R15">
-        <v>235.6547766808073</v>
+        <v>2659.85337876534</v>
       </c>
       <c r="S15">
-        <v>0.1644266132175292</v>
+        <v>0.17783430590796</v>
       </c>
       <c r="T15">
-        <v>0.1644266132175292</v>
+        <v>0.215917077344046</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H16">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I16">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J16">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N16">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O16">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P16">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q16">
-        <v>12.1740666914921</v>
+        <v>2.162063730708</v>
       </c>
       <c r="R16">
-        <v>12.1740666914921</v>
+        <v>19.458573576372</v>
       </c>
       <c r="S16">
-        <v>0.008494377170540957</v>
+        <v>0.001300974690386636</v>
       </c>
       <c r="T16">
-        <v>0.008494377170540957</v>
+        <v>0.001579575163592122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.33460245100019</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H17">
-        <v>79.33460245100019</v>
+        <v>287.436276</v>
       </c>
       <c r="I17">
-        <v>0.3006636917587043</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J17">
-        <v>0.3006636917587043</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N17">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O17">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P17">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q17">
-        <v>168.7359633511238</v>
+        <v>0.653981402628</v>
       </c>
       <c r="R17">
-        <v>168.7359633511238</v>
+        <v>5.885832623651999</v>
       </c>
       <c r="S17">
-        <v>0.1177344392191227</v>
+        <v>0.0003935190441976328</v>
       </c>
       <c r="T17">
-        <v>0.1177344392191227</v>
+        <v>0.0004777901624130448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.5475757513817</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H18">
-        <v>40.5475757513817</v>
+        <v>287.436276</v>
       </c>
       <c r="I18">
-        <v>0.1536679259823082</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J18">
-        <v>0.1536679259823082</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N18">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O18">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P18">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q18">
-        <v>7.331030938375674</v>
+        <v>14.97990121056</v>
       </c>
       <c r="R18">
-        <v>7.331030938375674</v>
+        <v>134.81911089504</v>
       </c>
       <c r="S18">
-        <v>0.005115179949111601</v>
+        <v>0.009013828807464846</v>
       </c>
       <c r="T18">
-        <v>0.005115179949111601</v>
+        <v>0.01094411768219049</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.5475757513817</v>
+        <v>95.81209199999999</v>
       </c>
       <c r="H19">
-        <v>40.5475757513817</v>
+        <v>287.436276</v>
       </c>
       <c r="I19">
-        <v>0.1536679259823082</v>
+        <v>0.3238051478472381</v>
       </c>
       <c r="J19">
-        <v>0.1536679259823082</v>
+        <v>0.3384043265671421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N19">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O19">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P19">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q19">
-        <v>120.4421477317116</v>
+        <v>205.42759256421</v>
       </c>
       <c r="R19">
-        <v>120.4421477317116</v>
+        <v>1232.56555538526</v>
       </c>
       <c r="S19">
-        <v>0.08403773825045306</v>
+        <v>0.1236115729787383</v>
       </c>
       <c r="T19">
-        <v>0.08403773825045306</v>
+        <v>0.1000551212628345</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.5475757513817</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H20">
-        <v>40.5475757513817</v>
+        <v>266.079544</v>
       </c>
       <c r="I20">
-        <v>0.1536679259823082</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J20">
-        <v>0.1536679259823082</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N20">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O20">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P20">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q20">
-        <v>6.22211337960042</v>
+        <v>17.92382762929066</v>
       </c>
       <c r="R20">
-        <v>6.22211337960042</v>
+        <v>107.542965775744</v>
       </c>
       <c r="S20">
-        <v>0.004341439814941363</v>
+        <v>0.01078527231615133</v>
       </c>
       <c r="T20">
-        <v>0.004341439814941363</v>
+        <v>0.008729940922528562</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.5475757513817</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H21">
-        <v>40.5475757513817</v>
+        <v>266.079544</v>
       </c>
       <c r="I21">
-        <v>0.1536679259823082</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J21">
-        <v>0.1536679259823082</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N21">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O21">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P21">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q21">
-        <v>86.24022865921354</v>
+        <v>273.5804741673289</v>
       </c>
       <c r="R21">
-        <v>86.24022865921354</v>
+        <v>2462.22426750596</v>
       </c>
       <c r="S21">
-        <v>0.06017356796780212</v>
+        <v>0.1646210829128141</v>
       </c>
       <c r="T21">
-        <v>0.06017356796780212</v>
+        <v>0.199874275721261</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.4131007904634</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H22">
-        <v>13.4131007904634</v>
+        <v>266.079544</v>
       </c>
       <c r="I22">
-        <v>0.05083320867566127</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J22">
-        <v>0.05083320867566127</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.180800721190486</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N22">
-        <v>0.180800721190486</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O22">
-        <v>0.03328723229921456</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P22">
-        <v>0.03328723229921456</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q22">
-        <v>2.42509829631646</v>
+        <v>2.001420765574222</v>
       </c>
       <c r="R22">
-        <v>2.42509829631646</v>
+        <v>18.012786890168</v>
       </c>
       <c r="S22">
-        <v>0.001692096825701186</v>
+        <v>0.001204311290108759</v>
       </c>
       <c r="T22">
-        <v>0.001692096825701186</v>
+        <v>0.001462211538123036</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.4131007904634</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H23">
-        <v>13.4131007904634</v>
+        <v>266.079544</v>
       </c>
       <c r="I23">
-        <v>0.05083320867566127</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J23">
-        <v>0.05083320867566127</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.97039084334425</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N23">
-        <v>2.97039084334425</v>
+        <v>0.020477</v>
       </c>
       <c r="O23">
-        <v>0.5468788474449011</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P23">
-        <v>0.5468788474449011</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q23">
-        <v>39.84215176884601</v>
+        <v>0.6053900913875555</v>
       </c>
       <c r="R23">
-        <v>39.84215176884601</v>
+        <v>5.448510822487999</v>
       </c>
       <c r="S23">
-        <v>0.02779960657247179</v>
+        <v>0.0003642802825465982</v>
       </c>
       <c r="T23">
-        <v>0.02779960657247179</v>
+        <v>0.0004422899931480775</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.4131007904634</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H24">
-        <v>13.4131007904634</v>
+        <v>266.079544</v>
       </c>
       <c r="I24">
-        <v>0.05083320867566127</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J24">
-        <v>0.05083320867566127</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.153452167344145</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N24">
-        <v>0.153452167344145</v>
+        <v>0.46904</v>
       </c>
       <c r="O24">
-        <v>0.02825208830788276</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P24">
-        <v>0.02825208830788276</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q24">
-        <v>2.058269387102073</v>
+        <v>13.86688325752889</v>
       </c>
       <c r="R24">
-        <v>2.058269387102073</v>
+        <v>124.80194931776</v>
       </c>
       <c r="S24">
-        <v>0.001436144300477815</v>
+        <v>0.008344094531701735</v>
       </c>
       <c r="T24">
-        <v>0.001436144300477815</v>
+        <v>0.01013096148782411</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.4131007904634</v>
+        <v>88.69318133333333</v>
       </c>
       <c r="H25">
-        <v>13.4131007904634</v>
+        <v>266.079544</v>
       </c>
       <c r="I25">
-        <v>0.05083320867566127</v>
+        <v>0.2997461812511296</v>
       </c>
       <c r="J25">
-        <v>0.05083320867566127</v>
+        <v>0.3132606299860782</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.12688988333106</v>
+        <v>2.1440675</v>
       </c>
       <c r="N25">
-        <v>2.12688988333106</v>
+        <v>4.288135</v>
       </c>
       <c r="O25">
-        <v>0.3915818319480014</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P25">
-        <v>0.3915818319480014</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q25">
-        <v>28.52818837533645</v>
+        <v>190.1641675684067</v>
       </c>
       <c r="R25">
-        <v>28.52818837533645</v>
+        <v>1140.98500541044</v>
       </c>
       <c r="S25">
-        <v>0.01990536097701048</v>
+        <v>0.1144271399178071</v>
       </c>
       <c r="T25">
-        <v>0.01990536097701048</v>
+        <v>0.09262095032319342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>41.14755033333334</v>
+      </c>
+      <c r="H26">
+        <v>123.442651</v>
+      </c>
+      <c r="I26">
+        <v>0.1390616606016355</v>
+      </c>
+      <c r="J26">
+        <v>0.1453314375020561</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.202088</v>
+      </c>
+      <c r="N26">
+        <v>0.404176</v>
+      </c>
+      <c r="O26">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P26">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q26">
+        <v>8.315426151762667</v>
+      </c>
+      <c r="R26">
+        <v>49.892556910576</v>
+      </c>
+      <c r="S26">
+        <v>0.005003626308314143</v>
+      </c>
+      <c r="T26">
+        <v>0.004050093571080051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>41.14755033333334</v>
+      </c>
+      <c r="H27">
+        <v>123.442651</v>
+      </c>
+      <c r="I27">
+        <v>0.1390616606016355</v>
+      </c>
+      <c r="J27">
+        <v>0.1453314375020561</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N27">
+        <v>9.253715</v>
+      </c>
+      <c r="O27">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P27">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q27">
+        <v>126.9225679109406</v>
+      </c>
+      <c r="R27">
+        <v>1142.303111198465</v>
+      </c>
+      <c r="S27">
+        <v>0.07637288676820859</v>
+      </c>
+      <c r="T27">
+        <v>0.09272794928473495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>41.14755033333334</v>
+      </c>
+      <c r="H28">
+        <v>123.442651</v>
+      </c>
+      <c r="I28">
+        <v>0.1390616606016355</v>
+      </c>
+      <c r="J28">
+        <v>0.1453314375020561</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P28">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q28">
+        <v>0.9285219049718888</v>
+      </c>
+      <c r="R28">
+        <v>8.356697144747001</v>
+      </c>
+      <c r="S28">
+        <v>0.0005587178031252763</v>
+      </c>
+      <c r="T28">
+        <v>0.0006783658220216097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>41.14755033333334</v>
+      </c>
+      <c r="H29">
+        <v>123.442651</v>
+      </c>
+      <c r="I29">
+        <v>0.1390616606016355</v>
+      </c>
+      <c r="J29">
+        <v>0.1453314375020561</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.020477</v>
+      </c>
+      <c r="O29">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P29">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q29">
+        <v>0.2808594627252222</v>
+      </c>
+      <c r="R29">
+        <v>2.527735164527</v>
+      </c>
+      <c r="S29">
+        <v>0.0001690010555060975</v>
+      </c>
+      <c r="T29">
+        <v>0.0002051922084809741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>41.14755033333334</v>
+      </c>
+      <c r="H30">
+        <v>123.442651</v>
+      </c>
+      <c r="I30">
+        <v>0.1390616606016355</v>
+      </c>
+      <c r="J30">
+        <v>0.1453314375020561</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.46904</v>
+      </c>
+      <c r="O30">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P30">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q30">
+        <v>6.433282336115556</v>
+      </c>
+      <c r="R30">
+        <v>57.89954102504001</v>
+      </c>
+      <c r="S30">
+        <v>0.003871087321120281</v>
+      </c>
+      <c r="T30">
+        <v>0.004700070980412957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>41.14755033333334</v>
+      </c>
+      <c r="H31">
+        <v>123.442651</v>
+      </c>
+      <c r="I31">
+        <v>0.1390616606016355</v>
+      </c>
+      <c r="J31">
+        <v>0.1453314375020561</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1440675</v>
+      </c>
+      <c r="N31">
+        <v>4.288135</v>
+      </c>
+      <c r="O31">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P31">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q31">
+        <v>88.22312537431418</v>
+      </c>
+      <c r="R31">
+        <v>529.3387522458851</v>
+      </c>
+      <c r="S31">
+        <v>0.0530863413453611</v>
+      </c>
+      <c r="T31">
+        <v>0.04296976563532559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.4326165</v>
+      </c>
+      <c r="H32">
+        <v>26.865233</v>
+      </c>
+      <c r="I32">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J32">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.202088</v>
+      </c>
+      <c r="N32">
+        <v>0.404176</v>
+      </c>
+      <c r="O32">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P32">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q32">
+        <v>2.714570603252</v>
+      </c>
+      <c r="R32">
+        <v>10.858282413008</v>
+      </c>
+      <c r="S32">
+        <v>0.001633433649498373</v>
+      </c>
+      <c r="T32">
+        <v>0.0008814352784668211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.4326165</v>
+      </c>
+      <c r="H33">
+        <v>26.865233</v>
+      </c>
+      <c r="I33">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J33">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N33">
+        <v>9.253715</v>
+      </c>
+      <c r="O33">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P33">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q33">
+        <v>41.43386826509916</v>
+      </c>
+      <c r="R33">
+        <v>248.603209590595</v>
+      </c>
+      <c r="S33">
+        <v>0.02493192646086166</v>
+      </c>
+      <c r="T33">
+        <v>0.02018069073343692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.4326165</v>
+      </c>
+      <c r="H34">
+        <v>26.865233</v>
+      </c>
+      <c r="I34">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J34">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N34">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P34">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q34">
+        <v>0.3031159464001666</v>
+      </c>
+      <c r="R34">
+        <v>1.818695678401</v>
+      </c>
+      <c r="S34">
+        <v>0.0001823934090925592</v>
+      </c>
+      <c r="T34">
+        <v>0.0001476350007085239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.4326165</v>
+      </c>
+      <c r="H35">
+        <v>26.865233</v>
+      </c>
+      <c r="I35">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J35">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.020477</v>
+      </c>
+      <c r="O35">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P35">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q35">
+        <v>0.09168656269016666</v>
+      </c>
+      <c r="R35">
+        <v>0.5501193761409999</v>
+      </c>
+      <c r="S35">
+        <v>5.517038920466691E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.465665996290006E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.4326165</v>
+      </c>
+      <c r="H36">
+        <v>26.865233</v>
+      </c>
+      <c r="I36">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J36">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.46904</v>
+      </c>
+      <c r="O36">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P36">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q36">
+        <v>2.100144814386667</v>
+      </c>
+      <c r="R36">
+        <v>12.60086888632</v>
+      </c>
+      <c r="S36">
+        <v>0.0012637163330838</v>
+      </c>
+      <c r="T36">
+        <v>0.001022892014894694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.4326165</v>
+      </c>
+      <c r="H37">
+        <v>26.865233</v>
+      </c>
+      <c r="I37">
+        <v>0.04539667468859516</v>
+      </c>
+      <c r="J37">
+        <v>0.03162896210579336</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1440675</v>
+      </c>
+      <c r="N37">
+        <v>4.288135</v>
+      </c>
+      <c r="O37">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P37">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q37">
+        <v>28.80043647761375</v>
+      </c>
+      <c r="R37">
+        <v>115.201745910455</v>
+      </c>
+      <c r="S37">
+        <v>0.01733003444685411</v>
+      </c>
+      <c r="T37">
+        <v>0.00935165241832351</v>
       </c>
     </row>
   </sheetData>
